--- a/finalProject/project6.xlsx
+++ b/finalProject/project6.xlsx
@@ -8,13 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/halimah/Desktop/Parallel-class/finalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{282B34F7-FB2F-9742-8636-BAB35B536DB7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F265D387-E2BD-8349-9AA9-7560F28E4269}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{82343D1E-EB17-DE40-BDCC-5B96A4F24C3C}"/>
+    <workbookView xWindow="2820" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{82343D1E-EB17-DE40-BDCC-5B96A4F24C3C}"/>
   </bookViews>
   <sheets>
     <sheet name="project6" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">project6!$G$19:$G$22</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">project6!$G$23:$G$58</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">project6!$H$19:$H$22</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">project6!$H$23:$H$58</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">project6!$G$19:$G$22</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">project6!$G$23:$G$58</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">project6!$H$19:$H$22</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">project6!$H$23:$H$58</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">project6!$G$19:$G$22</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">project6!$G$23:$G$58</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">project6!$H$19:$H$22</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">project6!$H$23:$H$58</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">project6!$H$19:$H$22</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">project6!$G$19:$G$22</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">project6!$G$23:$G$58</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">project6!$H$19:$H$22</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">project6!$H$23:$H$58</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">project6!$H$23:$H$58</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">project6!$G$19:$G$22</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">project6!$G$23:$G$58</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">project6!$H$19:$H$22</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">project6!$H$23:$H$58</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">project6!$G$19:$G$22</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">project6!$G$23:$G$58</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -28,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="20" uniqueCount="14">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="19" uniqueCount="14">
   <si>
     <t>collatz_hyb1</t>
   </si>
@@ -1020,579 +1046,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>FRACTAL HYBRID</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0%"/>
-              <a:t> 1</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>project6!$H$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>runtimes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>project6!$G$19:$G$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>320</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>project6!$H$18:$H$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.59599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.58199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55200000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.54500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.51400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.85099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.90700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.73899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.78600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.79600000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.95099999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.97199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.98599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.1439999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.3109999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.345</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.3660000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.5680000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.639</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.7569999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.149</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.109</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.0110000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.0459999999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.2509999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.3660000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.4769999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.5379999999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.6869999999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.8029999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.806</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.9849999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.0539999999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.1909999999999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.2469999999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.3130000000000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.5209999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A100-5847-AB39-D2B88C16B0C5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1915158816"/>
-        <c:axId val="1918042864"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1915158816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15%"/>
-                <a:lumOff val="85%"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1918042864"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1918042864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15%"/>
-                  <a:lumOff val="85%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1915158816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65%"/>
-                  <a:lumOff val="35%"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15%"/>
-          <a:lumOff val="85%"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65%"/>
-                    <a:lumOff val="35%"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>FRACTAL MPI+CUDA+OpenMP</a:t>
             </a:r>
           </a:p>
@@ -2307,6 +1760,870 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FRACTAL</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0%"/>
+              <a:t> HYBRID 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>project6!$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU Frames </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>project6!$G$19:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>project6!$H$19:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.236</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.157</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.411</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.804</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.988</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0459999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.7040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.2130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.3029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.29</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.4689999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E957-BC4B-9149-7FDD80C24123}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>project6!$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runtimes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>project6!$G$19:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>320</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>project6!$H$19:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.60199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.236</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.157</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.411</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.804</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.988</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0459999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.7040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.2130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.3029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.29</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.4689999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E957-BC4B-9149-7FDD80C24123}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1954410576"/>
+        <c:axId val="1953863280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1954410576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1953863280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1953863280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1954410576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -2345,12 +2662,9 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -2385,9 +2699,12 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="12">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -4009,23 +4326,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17">
+        <xdr:cNvPr id="19" name="Chart 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE30AC8-C053-6B4A-A968-2B37BEB26BC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2F95D01-9CCC-3C44-B191-D85A8FE58A53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4045,23 +4362,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Chart 18">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2F95D01-9CCC-3C44-B191-D85A8FE58A53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{166EA1A8-E43C-9B46-8C5A-6911C8352979}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4381,8 +4698,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AA5D34-B864-2B4F-9A13-ABB7A8640981}">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4613,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.59599999999999997</v>
+        <v>0.60199999999999998</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.2">
@@ -4621,7 +4938,7 @@
         <v>16</v>
       </c>
       <c r="H20">
-        <v>0.58199999999999996</v>
+        <v>0.59699999999999998</v>
       </c>
     </row>
     <row r="21" spans="7:8" x14ac:dyDescent="0.2">
@@ -4629,15 +4946,15 @@
         <v>24</v>
       </c>
       <c r="H21">
-        <v>0.55200000000000005</v>
+        <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="22" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G22">
         <v>32</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>11</v>
+      <c r="H22" s="11">
+        <v>0.58199999999999996</v>
       </c>
     </row>
     <row r="23" spans="7:8" x14ac:dyDescent="0.2">
@@ -4645,7 +4962,7 @@
         <v>40</v>
       </c>
       <c r="H23">
-        <v>0.54500000000000004</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="24" spans="7:8" x14ac:dyDescent="0.2">
@@ -4653,7 +4970,7 @@
         <v>48</v>
       </c>
       <c r="H24">
-        <v>0.51400000000000001</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="25" spans="7:8" x14ac:dyDescent="0.2">
@@ -4661,7 +4978,7 @@
         <v>56</v>
       </c>
       <c r="H25">
-        <v>0.85099999999999998</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="26" spans="7:8" x14ac:dyDescent="0.2">
@@ -4669,7 +4986,7 @@
         <v>64</v>
       </c>
       <c r="H26">
-        <v>0.90700000000000003</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="27" spans="7:8" x14ac:dyDescent="0.2">
@@ -4677,7 +4994,7 @@
         <v>72</v>
       </c>
       <c r="H27">
-        <v>0.73899999999999999</v>
+        <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="28" spans="7:8" x14ac:dyDescent="0.2">
@@ -4685,7 +5002,7 @@
         <v>80</v>
       </c>
       <c r="H28">
-        <v>0.78600000000000003</v>
+        <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="29" spans="7:8" x14ac:dyDescent="0.2">
@@ -4693,7 +5010,7 @@
         <v>88</v>
       </c>
       <c r="H29">
-        <v>0.79600000000000004</v>
+        <v>0.81699999999999995</v>
       </c>
     </row>
     <row r="30" spans="7:8" x14ac:dyDescent="0.2">
@@ -4701,7 +5018,7 @@
         <v>96</v>
       </c>
       <c r="H30">
-        <v>0.95099999999999996</v>
+        <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="31" spans="7:8" x14ac:dyDescent="0.2">
@@ -4709,7 +5026,7 @@
         <v>104</v>
       </c>
       <c r="H31">
-        <v>0.97199999999999998</v>
+        <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="32" spans="7:8" x14ac:dyDescent="0.2">
@@ -4717,7 +5034,7 @@
         <v>112</v>
       </c>
       <c r="H32">
-        <v>0.98599999999999999</v>
+        <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="33" spans="7:8" x14ac:dyDescent="0.2">
@@ -4725,7 +5042,7 @@
         <v>120</v>
       </c>
       <c r="H33">
-        <v>1.1399999999999999</v>
+        <v>0.97599999999999998</v>
       </c>
     </row>
     <row r="34" spans="7:8" x14ac:dyDescent="0.2">
@@ -4733,7 +5050,7 @@
         <v>128</v>
       </c>
       <c r="H34">
-        <v>1.1439999999999999</v>
+        <v>1.236</v>
       </c>
     </row>
     <row r="35" spans="7:8" x14ac:dyDescent="0.2">
@@ -4741,7 +5058,7 @@
         <v>136</v>
       </c>
       <c r="H35">
-        <v>1.3109999999999999</v>
+        <v>1.157</v>
       </c>
     </row>
     <row r="36" spans="7:8" x14ac:dyDescent="0.2">
@@ -4749,7 +5066,7 @@
         <v>144</v>
       </c>
       <c r="H36">
-        <v>1.345</v>
+        <v>1.3149999999999999</v>
       </c>
     </row>
     <row r="37" spans="7:8" x14ac:dyDescent="0.2">
@@ -4757,7 +5074,7 @@
         <v>152</v>
       </c>
       <c r="H37">
-        <v>1.3660000000000001</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="38" spans="7:8" x14ac:dyDescent="0.2">
@@ -4765,7 +5082,7 @@
         <v>160</v>
       </c>
       <c r="H38">
-        <v>1.5680000000000001</v>
+        <v>1.411</v>
       </c>
     </row>
     <row r="39" spans="7:8" x14ac:dyDescent="0.2">
@@ -4773,7 +5090,7 @@
         <v>168</v>
       </c>
       <c r="H39">
-        <v>1.639</v>
+        <v>1.5820000000000001</v>
       </c>
     </row>
     <row r="40" spans="7:8" x14ac:dyDescent="0.2">
@@ -4781,7 +5098,7 @@
         <v>176</v>
       </c>
       <c r="H40">
-        <v>1.7569999999999999</v>
+        <v>1.5820000000000001</v>
       </c>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.2">
@@ -4789,7 +5106,7 @@
         <v>184</v>
       </c>
       <c r="H41">
-        <v>2.149</v>
+        <v>1.804</v>
       </c>
     </row>
     <row r="42" spans="7:8" x14ac:dyDescent="0.2">
@@ -4797,7 +5114,7 @@
         <v>192</v>
       </c>
       <c r="H42">
-        <v>2.109</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="43" spans="7:8" x14ac:dyDescent="0.2">
@@ -4805,7 +5122,7 @@
         <v>200</v>
       </c>
       <c r="H43">
-        <v>2.0110000000000001</v>
+        <v>1.988</v>
       </c>
     </row>
     <row r="44" spans="7:8" x14ac:dyDescent="0.2">
@@ -4813,7 +5130,7 @@
         <v>208</v>
       </c>
       <c r="H44">
-        <v>2.0459999999999998</v>
+        <v>2.0270000000000001</v>
       </c>
     </row>
     <row r="45" spans="7:8" x14ac:dyDescent="0.2">
@@ -4821,7 +5138,7 @@
         <v>216</v>
       </c>
       <c r="H45">
-        <v>2.2509999999999999</v>
+        <v>2.0459999999999998</v>
       </c>
     </row>
     <row r="46" spans="7:8" x14ac:dyDescent="0.2">
@@ -4829,7 +5146,7 @@
         <v>224</v>
       </c>
       <c r="H46">
-        <v>2.3660000000000001</v>
+        <v>2.2930000000000001</v>
       </c>
     </row>
     <row r="47" spans="7:8" x14ac:dyDescent="0.2">
@@ -4837,7 +5154,7 @@
         <v>232</v>
       </c>
       <c r="H47">
-        <v>2.4769999999999999</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="48" spans="7:8" x14ac:dyDescent="0.2">
@@ -4845,7 +5162,7 @@
         <v>240</v>
       </c>
       <c r="H48">
-        <v>2.5379999999999998</v>
+        <v>2.4649999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -4853,7 +5170,7 @@
         <v>248</v>
       </c>
       <c r="H49">
-        <v>2.6869999999999998</v>
+        <v>2.5310000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -4861,7 +5178,7 @@
         <v>256</v>
       </c>
       <c r="H50">
-        <v>2.8029999999999999</v>
+        <v>2.7040000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -4869,7 +5186,7 @@
         <v>264</v>
       </c>
       <c r="H51">
-        <v>2.806</v>
+        <v>2.7519999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -4877,7 +5194,7 @@
         <v>272</v>
       </c>
       <c r="H52">
-        <v>2.9849999999999999</v>
+        <v>2.7909999999999999</v>
       </c>
       <c r="K52" t="s">
         <v>13</v>
@@ -4891,7 +5208,7 @@
         <v>280</v>
       </c>
       <c r="H53">
-        <v>3.0539999999999998</v>
+        <v>2.9689999999999999</v>
       </c>
       <c r="K53">
         <v>640</v>
@@ -4905,7 +5222,7 @@
         <v>288</v>
       </c>
       <c r="H54">
-        <v>3.1909999999999998</v>
+        <v>3.0009999999999999</v>
       </c>
       <c r="K54">
         <v>632</v>
@@ -4919,7 +5236,7 @@
         <v>296</v>
       </c>
       <c r="H55">
-        <v>3.2469999999999999</v>
+        <v>3.2130000000000001</v>
       </c>
       <c r="K55">
         <v>624</v>
@@ -4933,7 +5250,7 @@
         <v>312</v>
       </c>
       <c r="H56">
-        <v>3.3130000000000002</v>
+        <v>3.3029999999999999</v>
       </c>
       <c r="K56">
         <v>616</v>
@@ -4947,7 +5264,7 @@
         <v>304</v>
       </c>
       <c r="H57">
-        <v>3.5209999999999999</v>
+        <v>3.29</v>
       </c>
       <c r="K57">
         <v>608</v>
@@ -4961,7 +5278,7 @@
         <v>320</v>
       </c>
       <c r="H58">
-        <v>3.617</v>
+        <v>3.4689999999999999</v>
       </c>
       <c r="K58">
         <v>600</v>
@@ -5452,7 +5769,7 @@
         <v>0.70099999999999996</v>
       </c>
       <c r="K83">
-        <v>392</v>
+        <v>39</v>
       </c>
       <c r="L83">
         <v>2.6869999999999998</v>

--- a/finalProject/project6.xlsx
+++ b/finalProject/project6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/halimah/Desktop/Parallel-class/finalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F265D387-E2BD-8349-9AA9-7560F28E4269}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{384621F6-4C27-3041-AA99-E926B5C17919}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{82343D1E-EB17-DE40-BDCC-5B96A4F24C3C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{82343D1E-EB17-DE40-BDCC-5B96A4F24C3C}"/>
   </bookViews>
   <sheets>
     <sheet name="project6" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,25 @@
     <definedName name="_xlchart.v1.13" hidden="1">project6!$G$23:$G$58</definedName>
     <definedName name="_xlchart.v1.14" hidden="1">project6!$H$19:$H$22</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">project6!$H$23:$H$58</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">project6!$G$19:$G$22</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">project6!$G$23:$G$58</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">project6!$H$19:$H$22</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">project6!$H$23:$H$58</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">project6!$A$63:$A$73</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">project6!$B$61</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">project6!$B$62:$B$73</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">project6!$C$61</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">project6!$H$19:$H$22</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">project6!$G$19:$G$22</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">project6!$G$23:$G$58</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">project6!$H$19:$H$22</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">project6!$H$23:$H$58</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">project6!$C$62:$C$73</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">project6!$D$61</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">project6!$D$62:$D$73</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">project6!$E$61</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">project6!$E$62:$E$73</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">project6!$G$19:$G$22</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">project6!$G$23:$G$58</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">project6!$H$19:$H$22</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">project6!$H$23:$H$58</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">project6!$G$19:$G$22</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">project6!$H$23:$H$58</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">project6!$G$23:$G$58</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">project6!$H$19:$H$22</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">project6!$H$23:$H$58</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">project6!$G$19:$G$22</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">project6!$G$23:$G$58</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">project6!$H$19:$H$22</definedName>
@@ -1161,37 +1170,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="1">
-                  <c:v>0.38400000000000001</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45300000000000001</c:v>
+                  <c:v>0.66800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77300000000000002</c:v>
+                  <c:v>0.73899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96799999999999997</c:v>
+                  <c:v>1.452</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.196</c:v>
+                  <c:v>2.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.647</c:v>
+                  <c:v>2.8380000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.012</c:v>
+                  <c:v>3.5910000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3639999999999999</c:v>
+                  <c:v>4.4939999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8170000000000002</c:v>
+                  <c:v>5.2640000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2629999999999999</c:v>
+                  <c:v>6.0979999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5430000000000001</c:v>
+                  <c:v>6.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,37 +1287,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="1">
-                  <c:v>0.23599999999999999</c:v>
+                  <c:v>0.35699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.07E-2</c:v>
+                  <c:v>0.59799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45200000000000001</c:v>
+                  <c:v>1.113</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64200000000000002</c:v>
+                  <c:v>1.548</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82899999999999996</c:v>
+                  <c:v>1.8109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0069999999999999</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97399999999999998</c:v>
+                  <c:v>2.7650000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.298</c:v>
+                  <c:v>3.077</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.423</c:v>
+                  <c:v>3.528</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4159999999999999</c:v>
+                  <c:v>3.9969999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6839999999999999</c:v>
+                  <c:v>4.2779999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1397,37 +1406,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="1">
-                  <c:v>0.19700000000000001</c:v>
+                  <c:v>0.246</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.433</c:v>
+                  <c:v>0.69299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48899999999999999</c:v>
+                  <c:v>0.86199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58199999999999996</c:v>
+                  <c:v>0.90400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59199999999999997</c:v>
+                  <c:v>1.1559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71699999999999997</c:v>
+                  <c:v>1.381</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>1.583</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.74299999999999999</c:v>
+                  <c:v>1.603</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.747</c:v>
+                  <c:v>2.0369999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79500000000000004</c:v>
+                  <c:v>2.1819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9</c:v>
+                  <c:v>2.331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1516,37 +1525,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="1">
-                  <c:v>0.59099999999999997</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56899999999999995</c:v>
+                  <c:v>0.44900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56200000000000006</c:v>
+                  <c:v>0.63700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54600000000000004</c:v>
+                  <c:v>0.89700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53</c:v>
+                  <c:v>0.76900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51700000000000002</c:v>
+                  <c:v>0.89700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71199999999999997</c:v>
+                  <c:v>1.1519999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.51900000000000002</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65800000000000003</c:v>
+                  <c:v>1.298</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.65300000000000002</c:v>
+                  <c:v>1.456</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.81200000000000006</c:v>
+                  <c:v>1.7669999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2624,6 +2633,751 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FRACTAL HYBRID 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>project6!$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fractal_hyb2_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>project6!$A$63:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>project6!$B$62:$B$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.452</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-30C6-ED42-9F54-DEC8D652DF22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>project6!$C$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fractal_hyb2_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>project6!$A$63:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>project6!$C$62:$C$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.35699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.548</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.077</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.528</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2779999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-30C6-ED42-9F54-DEC8D652DF22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>project6!$D$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fractal_hyb2_4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>project6!$A$63:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>project6!$D$62:$D$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.381</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.583</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-30C6-ED42-9F54-DEC8D652DF22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>project6!$E$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fractal_hyb2_8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>project6!$A$63:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>project6!$E$62:$E$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.456</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7669999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-30C6-ED42-9F54-DEC8D652DF22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1955261888"/>
+        <c:axId val="1949137296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1955261888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1949137296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1949137296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1955261888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -2738,6 +3492,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
   <cs:axisTitle>
@@ -3771,6 +4565,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4362,16 +5672,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4391,6 +5701,42 @@
       <a:graphic>
         <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
           <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA75BBB-FB2D-0E40-A11A-7F056A75E909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4698,8 +6044,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AA5D34-B864-2B4F-9A13-ABB7A8640981}">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5342,16 +6688,16 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>0.38400000000000001</v>
+        <v>3.1E-2</v>
       </c>
       <c r="C63">
-        <v>0.23599999999999999</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="D63">
-        <v>0.19700000000000001</v>
+        <v>0.246</v>
       </c>
       <c r="E63">
-        <v>0.59099999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="K63">
         <v>560</v>
@@ -5365,16 +6711,16 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.45300000000000001</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="C64">
-        <v>4.07E-2</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="D64">
-        <v>0.433</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="E64">
-        <v>0.56899999999999995</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="K64">
         <v>552</v>
@@ -5388,16 +6734,16 @@
         <v>128</v>
       </c>
       <c r="B65">
-        <v>0.77300000000000002</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="C65">
-        <v>0.45200000000000001</v>
+        <v>1.113</v>
       </c>
       <c r="D65">
-        <v>0.48899999999999999</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="E65">
-        <v>0.56200000000000006</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="K65">
         <v>544</v>
@@ -5411,16 +6757,16 @@
         <v>192</v>
       </c>
       <c r="B66">
-        <v>0.96799999999999997</v>
+        <v>1.452</v>
       </c>
       <c r="C66">
-        <v>0.64200000000000002</v>
+        <v>1.548</v>
       </c>
       <c r="D66">
-        <v>0.58199999999999996</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="E66">
-        <v>0.54600000000000004</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="K66">
         <v>536</v>
@@ -5434,16 +6780,16 @@
         <v>256</v>
       </c>
       <c r="B67">
-        <v>1.196</v>
+        <v>2.375</v>
       </c>
       <c r="C67">
-        <v>0.82899999999999996</v>
+        <v>1.8109999999999999</v>
       </c>
       <c r="D67">
-        <v>0.59199999999999997</v>
+        <v>1.1559999999999999</v>
       </c>
       <c r="E67">
-        <v>0.53</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="K67">
         <v>528</v>
@@ -5457,16 +6803,16 @@
         <v>320</v>
       </c>
       <c r="B68">
-        <v>1.647</v>
+        <v>2.8380000000000001</v>
       </c>
       <c r="C68">
-        <v>1.0069999999999999</v>
+        <v>2.35</v>
       </c>
       <c r="D68">
-        <v>0.71699999999999997</v>
+        <v>1.381</v>
       </c>
       <c r="E68">
-        <v>0.51700000000000002</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="K68">
         <v>520</v>
@@ -5480,16 +6826,16 @@
         <v>384</v>
       </c>
       <c r="B69">
-        <v>2.012</v>
+        <v>3.5910000000000002</v>
       </c>
       <c r="C69">
-        <v>0.97399999999999998</v>
+        <v>2.7650000000000001</v>
       </c>
       <c r="D69">
-        <v>0.7</v>
+        <v>1.583</v>
       </c>
       <c r="E69">
-        <v>0.71199999999999997</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="K69">
         <v>512</v>
@@ -5503,16 +6849,16 @@
         <v>448</v>
       </c>
       <c r="B70">
-        <v>2.3639999999999999</v>
+        <v>4.4939999999999998</v>
       </c>
       <c r="C70">
-        <v>1.298</v>
+        <v>3.077</v>
       </c>
       <c r="D70">
-        <v>0.74299999999999999</v>
+        <v>1.603</v>
       </c>
       <c r="E70">
-        <v>0.51900000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="K70">
         <v>504</v>
@@ -5526,16 +6872,16 @@
         <v>512</v>
       </c>
       <c r="B71">
-        <v>2.8170000000000002</v>
+        <v>5.2640000000000002</v>
       </c>
       <c r="C71">
-        <v>1.423</v>
+        <v>3.528</v>
       </c>
       <c r="D71">
-        <v>0.747</v>
+        <v>2.0369999999999999</v>
       </c>
       <c r="E71">
-        <v>0.65800000000000003</v>
+        <v>1.298</v>
       </c>
       <c r="K71">
         <v>496</v>
@@ -5549,16 +6895,16 @@
         <v>576</v>
       </c>
       <c r="B72">
-        <v>3.2629999999999999</v>
+        <v>6.0979999999999999</v>
       </c>
       <c r="C72">
-        <v>1.4159999999999999</v>
+        <v>3.9969999999999999</v>
       </c>
       <c r="D72">
-        <v>0.79500000000000004</v>
+        <v>2.1819999999999999</v>
       </c>
       <c r="E72">
-        <v>0.65300000000000002</v>
+        <v>1.456</v>
       </c>
       <c r="K72">
         <v>488</v>
@@ -5572,16 +6918,16 @@
         <v>640</v>
       </c>
       <c r="B73">
-        <v>3.5430000000000001</v>
+        <v>6.95</v>
       </c>
       <c r="C73">
-        <v>1.6839999999999999</v>
+        <v>4.2779999999999996</v>
       </c>
       <c r="D73">
-        <v>0.9</v>
+        <v>2.331</v>
       </c>
       <c r="E73">
-        <v>0.81200000000000006</v>
+        <v>1.7669999999999999</v>
       </c>
       <c r="K73">
         <v>472</v>
